--- a/data/mappings.xlsx
+++ b/data/mappings.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+  <si>
+    <t>STT</t>
+  </si>
   <si>
     <t>prop</t>
   </si>
@@ -432,8 +435,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.0"/>
-    <col customWidth="1" min="3" max="3" width="25.88"/>
+    <col customWidth="1" min="1" max="1" width="4.13"/>
+    <col customWidth="1" min="2" max="2" width="26.0"/>
+    <col customWidth="1" min="4" max="4" width="25.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -446,86 +450,111 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
+      <c r="A6" s="2">
+        <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -542,10 +571,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.5"/>
-    <col customWidth="1" min="3" max="3" width="32.0"/>
-    <col customWidth="1" min="4" max="4" width="16.75"/>
-    <col customWidth="1" min="5" max="5" width="32.75"/>
+    <col customWidth="1" min="1" max="1" width="4.13"/>
+    <col customWidth="1" min="2" max="2" width="22.5"/>
+    <col customWidth="1" min="4" max="4" width="32.0"/>
+    <col customWidth="1" min="5" max="5" width="16.75"/>
+    <col customWidth="1" min="6" max="6" width="32.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -553,86 +583,107 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
+      <c r="A4" s="2">
+        <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
+      <c r="A6" s="2">
+        <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="3"/>
+      <c r="A7" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -641,6 +692,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="3"/>
@@ -648,6 +700,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="3"/>
@@ -655,6 +708,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="3"/>
@@ -662,6 +716,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="3"/>
@@ -669,6 +724,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="3"/>
@@ -676,6 +732,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="3"/>
@@ -683,6 +740,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="3"/>
@@ -690,6 +748,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="3"/>
@@ -697,6 +756,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="3"/>
@@ -704,6 +764,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="3"/>
@@ -711,6 +772,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="3"/>
@@ -718,6 +780,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -734,10 +797,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.5"/>
-    <col customWidth="1" min="3" max="3" width="32.0"/>
-    <col customWidth="1" min="4" max="4" width="16.75"/>
-    <col customWidth="1" min="5" max="5" width="32.75"/>
+    <col customWidth="1" min="1" max="1" width="4.13"/>
+    <col customWidth="1" min="2" max="2" width="22.5"/>
+    <col customWidth="1" min="4" max="4" width="32.0"/>
+    <col customWidth="1" min="5" max="5" width="16.75"/>
+    <col customWidth="1" min="6" max="6" width="32.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -745,86 +809,107 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3"/>
+      <c r="A2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
+      <c r="A4" s="2">
+        <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
+      <c r="A6" s="2">
+        <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="3"/>
+      <c r="A7" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -833,6 +918,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="3"/>
@@ -840,6 +926,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="3"/>
@@ -847,6 +934,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="3"/>
@@ -854,6 +942,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="3"/>
@@ -861,6 +950,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="3"/>
@@ -868,6 +958,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="3"/>
@@ -875,6 +966,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="3"/>
@@ -882,6 +974,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="3"/>
@@ -889,6 +982,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="3"/>
@@ -896,6 +990,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="3"/>
@@ -903,6 +998,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="3"/>
@@ -910,6 +1006,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -926,10 +1023,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.5"/>
-    <col customWidth="1" min="3" max="3" width="32.0"/>
-    <col customWidth="1" min="4" max="4" width="16.75"/>
-    <col customWidth="1" min="5" max="5" width="32.75"/>
+    <col customWidth="1" min="1" max="1" width="4.13"/>
+    <col customWidth="1" min="2" max="2" width="22.5"/>
+    <col customWidth="1" min="4" max="4" width="32.0"/>
+    <col customWidth="1" min="5" max="5" width="16.75"/>
+    <col customWidth="1" min="6" max="6" width="32.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -937,171 +1035,204 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="3"/>
+      <c r="A2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>37</v>
+      <c r="A4" s="2">
+        <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>40</v>
+      <c r="A6" s="2">
+        <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="3"/>
+      <c r="A7" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
